--- a/Pos_Tron/bin/Debug/Menu.xlsx
+++ b/Pos_Tron/bin/Debug/Menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos\Pos_Tron\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6F75F9-DA7E-4200-83E0-18FA076D06BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC2BE2-B694-4E0D-8C84-C121483153F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="3780" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="6360" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Cà Phê Đen</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Ca Cao Muối</t>
+  </si>
+  <si>
+    <t>Ca Cao Đá Xay</t>
+  </si>
+  <si>
+    <t>Bạc Xỉu Muối</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,17 +443,33 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>17000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>20000</v>
       </c>
     </row>

--- a/Pos_Tron/bin/Debug/Menu.xlsx
+++ b/Pos_Tron/bin/Debug/Menu.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos\Pos_Tron\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pos_tron\Pos_Tron\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EC2BE2-B694-4E0D-8C84-C121483153F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAFE302-F604-4CF7-85E7-47C737FAF45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="6360" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cà Phê Đen</t>
   </si>
@@ -42,16 +53,7 @@
     <t>Ca Cao</t>
   </si>
   <si>
-    <t>Sữa Tươi Cà Phê</t>
-  </si>
-  <si>
     <t>Ca Cao Muối</t>
-  </si>
-  <si>
-    <t>Ca Cao Đá Xay</t>
-  </si>
-  <si>
-    <t>Bạc Xỉu Muối</t>
   </si>
 </sst>
 </file>
@@ -103,7 +105,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,57 +421,33 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>17000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>18000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>18000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
         <v>20000</v>
       </c>
     </row>
